--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H2">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I2">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J2">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.346417339618495</v>
+        <v>0.5172723333333333</v>
       </c>
       <c r="N2">
-        <v>0.346417339618495</v>
+        <v>1.551817</v>
       </c>
       <c r="O2">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="P2">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="Q2">
-        <v>3.95179772962286</v>
+        <v>8.821433744279778</v>
       </c>
       <c r="R2">
-        <v>3.95179772962286</v>
+        <v>79.392903698518</v>
       </c>
       <c r="S2">
-        <v>0.009519146189472957</v>
+        <v>0.01683518549946011</v>
       </c>
       <c r="T2">
-        <v>0.009519146189472957</v>
+        <v>0.01683518549946011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H3">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I3">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J3">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.51449695129707</v>
+        <v>1.523369333333333</v>
       </c>
       <c r="N3">
-        <v>1.51449695129707</v>
+        <v>4.570107999999999</v>
       </c>
       <c r="O3">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="P3">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="Q3">
-        <v>17.27680727600903</v>
+        <v>25.97916179949244</v>
       </c>
       <c r="R3">
-        <v>17.27680727600903</v>
+        <v>233.812456195432</v>
       </c>
       <c r="S3">
-        <v>0.04161661739791912</v>
+        <v>0.04957969653159273</v>
       </c>
       <c r="T3">
-        <v>0.04161661739791912</v>
+        <v>0.04957969653159273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H4">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I4">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J4">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.10162484635969</v>
+        <v>2.230958</v>
       </c>
       <c r="N4">
-        <v>2.10162484635969</v>
+        <v>6.692874000000001</v>
       </c>
       <c r="O4">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="P4">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="Q4">
-        <v>23.97453980077793</v>
+        <v>38.04620296711067</v>
       </c>
       <c r="R4">
-        <v>23.97453980077793</v>
+        <v>342.415826703996</v>
       </c>
       <c r="S4">
-        <v>0.05775021010772304</v>
+        <v>0.07260893218370051</v>
       </c>
       <c r="T4">
-        <v>0.05775021010772304</v>
+        <v>0.07260893218370053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H5">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I5">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J5">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.79008739530867</v>
+        <v>2.792859</v>
       </c>
       <c r="N5">
-        <v>2.79008739530867</v>
+        <v>8.378577</v>
       </c>
       <c r="O5">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="P5">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="Q5">
-        <v>31.82825965459119</v>
+        <v>47.628722895062</v>
       </c>
       <c r="R5">
-        <v>31.82825965459119</v>
+        <v>428.658506055558</v>
       </c>
       <c r="S5">
-        <v>0.07666836142382023</v>
+        <v>0.09089660573154563</v>
       </c>
       <c r="T5">
-        <v>0.07666836142382023</v>
+        <v>0.09089660573154565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H6">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I6">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J6">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.26062997006695</v>
+        <v>1.287133333333333</v>
       </c>
       <c r="N6">
-        <v>1.26062997006695</v>
+        <v>3.8614</v>
       </c>
       <c r="O6">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="P6">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="Q6">
-        <v>14.38078896134775</v>
+        <v>21.95045179951111</v>
       </c>
       <c r="R6">
-        <v>14.38078896134775</v>
+        <v>197.5540661956</v>
       </c>
       <c r="S6">
-        <v>0.03464064757588</v>
+        <v>0.04189114134438227</v>
       </c>
       <c r="T6">
-        <v>0.03464064757588</v>
+        <v>0.04189114134438227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H7">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I7">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J7">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.26820481308606</v>
+        <v>2.406344</v>
       </c>
       <c r="N7">
-        <v>2.26820481308606</v>
+        <v>7.219032</v>
       </c>
       <c r="O7">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="P7">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="Q7">
-        <v>25.87482093287971</v>
+        <v>41.03719219845868</v>
       </c>
       <c r="R7">
-        <v>25.87482093287971</v>
+        <v>369.334729786128</v>
       </c>
       <c r="S7">
-        <v>0.06232763413982307</v>
+        <v>0.07831705854913208</v>
       </c>
       <c r="T7">
-        <v>0.06232763413982307</v>
+        <v>0.0783170585491321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H8">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I8">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J8">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.346417339618495</v>
+        <v>0.5172723333333333</v>
       </c>
       <c r="N8">
-        <v>0.346417339618495</v>
+        <v>1.551817</v>
       </c>
       <c r="O8">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="P8">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="Q8">
-        <v>1.027953141183074</v>
+        <v>1.570965214811222</v>
       </c>
       <c r="R8">
-        <v>1.027953141183074</v>
+        <v>14.138686933301</v>
       </c>
       <c r="S8">
-        <v>0.002476148046115578</v>
+        <v>0.002998094365521465</v>
       </c>
       <c r="T8">
-        <v>0.002476148046115578</v>
+        <v>0.002998094365521465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H9">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I9">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J9">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.51449695129707</v>
+        <v>1.523369333333333</v>
       </c>
       <c r="N9">
-        <v>1.51449695129707</v>
+        <v>4.570107999999999</v>
       </c>
       <c r="O9">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="P9">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="Q9">
-        <v>4.49409345419179</v>
+        <v>4.626499578191555</v>
       </c>
       <c r="R9">
-        <v>4.49409345419179</v>
+        <v>41.638496203724</v>
       </c>
       <c r="S9">
-        <v>0.01082543579063391</v>
+        <v>0.008829401304808859</v>
       </c>
       <c r="T9">
-        <v>0.01082543579063391</v>
+        <v>0.008829401304808861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H10">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I10">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J10">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.10162484635969</v>
+        <v>2.230958</v>
       </c>
       <c r="N10">
-        <v>2.10162484635969</v>
+        <v>6.692874000000001</v>
       </c>
       <c r="O10">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="P10">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="Q10">
-        <v>6.236327156091636</v>
+        <v>6.775458859591335</v>
       </c>
       <c r="R10">
-        <v>6.236327156091636</v>
+        <v>60.97912973632201</v>
       </c>
       <c r="S10">
-        <v>0.01502215294047499</v>
+        <v>0.01293056322268999</v>
       </c>
       <c r="T10">
-        <v>0.01502215294047499</v>
+        <v>0.01293056322268999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H11">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I11">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J11">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.79008739530867</v>
+        <v>2.792859</v>
       </c>
       <c r="N11">
-        <v>2.79008739530867</v>
+        <v>8.378577</v>
       </c>
       <c r="O11">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="P11">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="Q11">
-        <v>8.279259650632467</v>
+        <v>8.481962123509</v>
       </c>
       <c r="R11">
-        <v>8.279259650632467</v>
+        <v>76.337659111581</v>
       </c>
       <c r="S11">
-        <v>0.01994319758934034</v>
+        <v>0.01618732395300975</v>
       </c>
       <c r="T11">
-        <v>0.01994319758934034</v>
+        <v>0.01618732395300975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H12">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I12">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J12">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.26062997006695</v>
+        <v>1.287133333333333</v>
       </c>
       <c r="N12">
-        <v>1.26062997006695</v>
+        <v>3.8614</v>
       </c>
       <c r="O12">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="P12">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="Q12">
-        <v>3.740772731027176</v>
+        <v>3.909046672688889</v>
       </c>
       <c r="R12">
-        <v>3.740772731027176</v>
+        <v>35.1814200542</v>
       </c>
       <c r="S12">
-        <v>0.009010826192169516</v>
+        <v>0.007460184791779303</v>
       </c>
       <c r="T12">
-        <v>0.009010826192169516</v>
+        <v>0.007460184791779304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.96738362552852</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H13">
-        <v>2.96738362552852</v>
+        <v>9.111053</v>
       </c>
       <c r="I13">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J13">
-        <v>0.07349060637730184</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.26820481308606</v>
+        <v>2.406344</v>
       </c>
       <c r="N13">
-        <v>2.26820481308606</v>
+        <v>7.219032</v>
       </c>
       <c r="O13">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="P13">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="Q13">
-        <v>6.730633821696552</v>
+        <v>7.308109240077335</v>
       </c>
       <c r="R13">
-        <v>6.730633821696552</v>
+        <v>65.772983160696</v>
       </c>
       <c r="S13">
-        <v>0.01621284581856751</v>
+        <v>0.01394709502713216</v>
       </c>
       <c r="T13">
-        <v>0.01621284581856751</v>
+        <v>0.01394709502713217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H14">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I14">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J14">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.346417339618495</v>
+        <v>0.5172723333333333</v>
       </c>
       <c r="N14">
-        <v>0.346417339618495</v>
+        <v>1.551817</v>
       </c>
       <c r="O14">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="P14">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="Q14">
-        <v>1.610876477422523</v>
+        <v>2.563237696701445</v>
       </c>
       <c r="R14">
-        <v>1.610876477422523</v>
+        <v>23.069139270313</v>
       </c>
       <c r="S14">
-        <v>0.003880302012125414</v>
+        <v>0.004891787815235794</v>
       </c>
       <c r="T14">
-        <v>0.003880302012125414</v>
+        <v>0.004891787815235795</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H15">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I15">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J15">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.51449695129707</v>
+        <v>1.523369333333333</v>
       </c>
       <c r="N15">
-        <v>1.51449695129707</v>
+        <v>4.570107999999999</v>
       </c>
       <c r="O15">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="P15">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="Q15">
-        <v>7.042567547742698</v>
+        <v>7.548746471779111</v>
       </c>
       <c r="R15">
-        <v>7.042567547742698</v>
+        <v>67.938718246012</v>
       </c>
       <c r="S15">
-        <v>0.01696423618386934</v>
+        <v>0.01440633697704795</v>
       </c>
       <c r="T15">
-        <v>0.01696423618386934</v>
+        <v>0.01440633697704796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H16">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I16">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J16">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.10162484635969</v>
+        <v>2.230958</v>
       </c>
       <c r="N16">
-        <v>2.10162484635969</v>
+        <v>6.692874000000001</v>
       </c>
       <c r="O16">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="P16">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="Q16">
-        <v>9.772773017355048</v>
+        <v>11.05505799722067</v>
       </c>
       <c r="R16">
-        <v>9.772773017355048</v>
+        <v>99.49552197498602</v>
       </c>
       <c r="S16">
-        <v>0.02354079368268112</v>
+        <v>0.02109792551706061</v>
       </c>
       <c r="T16">
-        <v>0.02354079368268112</v>
+        <v>0.02109792551706062</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H17">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I17">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J17">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.79008739530867</v>
+        <v>2.792859</v>
       </c>
       <c r="N17">
-        <v>2.79008739530867</v>
+        <v>8.378577</v>
       </c>
       <c r="O17">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="P17">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="Q17">
-        <v>12.97419511392106</v>
+        <v>13.839443962217</v>
       </c>
       <c r="R17">
-        <v>12.97419511392106</v>
+        <v>124.554995659953</v>
       </c>
       <c r="S17">
-        <v>0.0312524244483401</v>
+        <v>0.02641176174614331</v>
       </c>
       <c r="T17">
-        <v>0.0312524244483401</v>
+        <v>0.02641176174614331</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H18">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I18">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J18">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.26062997006695</v>
+        <v>1.287133333333333</v>
       </c>
       <c r="N18">
-        <v>1.26062997006695</v>
+        <v>3.8614</v>
       </c>
       <c r="O18">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="P18">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="Q18">
-        <v>5.862059814185726</v>
+        <v>6.378127087177778</v>
       </c>
       <c r="R18">
-        <v>5.862059814185726</v>
+        <v>57.4031437846</v>
       </c>
       <c r="S18">
-        <v>0.01412061248084022</v>
+        <v>0.01217227899278813</v>
       </c>
       <c r="T18">
-        <v>0.01412061248084022</v>
+        <v>0.01217227899278813</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.65010348268525</v>
+        <v>4.955296333333334</v>
       </c>
       <c r="H19">
-        <v>4.65010348268525</v>
+        <v>14.865889</v>
       </c>
       <c r="I19">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="J19">
-        <v>0.1151650638359491</v>
+        <v>0.101736622762645</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.26820481308606</v>
+        <v>2.406344</v>
       </c>
       <c r="N19">
-        <v>2.26820481308606</v>
+        <v>7.219032</v>
       </c>
       <c r="O19">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="P19">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="Q19">
-        <v>10.54738710077493</v>
+        <v>11.92414759993867</v>
       </c>
       <c r="R19">
-        <v>10.54738710077493</v>
+        <v>107.317328399448</v>
       </c>
       <c r="S19">
-        <v>0.0254066950280929</v>
+        <v>0.02275653171436921</v>
       </c>
       <c r="T19">
-        <v>0.0254066950280929</v>
+        <v>0.02275653171436921</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H20">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I20">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J20">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.346417339618495</v>
+        <v>0.5172723333333333</v>
       </c>
       <c r="N20">
-        <v>0.346417339618495</v>
+        <v>1.551817</v>
       </c>
       <c r="O20">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="P20">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="Q20">
-        <v>1.867812832885501</v>
+        <v>3.050359432693556</v>
       </c>
       <c r="R20">
-        <v>1.867812832885501</v>
+        <v>27.453234894242</v>
       </c>
       <c r="S20">
-        <v>0.004499213934339586</v>
+        <v>0.005821430889590231</v>
       </c>
       <c r="T20">
-        <v>0.004499213934339586</v>
+        <v>0.005821430889590231</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H21">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I21">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J21">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.51449695129707</v>
+        <v>1.523369333333333</v>
       </c>
       <c r="N21">
-        <v>1.51449695129707</v>
+        <v>4.570107999999999</v>
       </c>
       <c r="O21">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="P21">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="Q21">
-        <v>8.165863880006565</v>
+        <v>8.983322161200888</v>
       </c>
       <c r="R21">
-        <v>8.165863880006565</v>
+        <v>80.849899450808</v>
       </c>
       <c r="S21">
-        <v>0.01967004825536395</v>
+        <v>0.01714413998555463</v>
       </c>
       <c r="T21">
-        <v>0.01967004825536395</v>
+        <v>0.01714413998555463</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H22">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I22">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J22">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.10162484635969</v>
+        <v>2.230958</v>
       </c>
       <c r="N22">
-        <v>2.10162484635969</v>
+        <v>6.692874000000001</v>
       </c>
       <c r="O22">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="P22">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="Q22">
-        <v>11.33153976144695</v>
+        <v>13.15597866096934</v>
       </c>
       <c r="R22">
-        <v>11.33153976144695</v>
+        <v>118.403807948724</v>
       </c>
       <c r="S22">
-        <v>0.02729557303312012</v>
+        <v>0.02510740856926772</v>
       </c>
       <c r="T22">
-        <v>0.02729557303312012</v>
+        <v>0.02510740856926772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H23">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I23">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J23">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.79008739530867</v>
+        <v>2.792859</v>
       </c>
       <c r="N23">
-        <v>2.79008739530867</v>
+        <v>8.378577</v>
       </c>
       <c r="O23">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="P23">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="Q23">
-        <v>15.04359177738857</v>
+        <v>16.469513727778</v>
       </c>
       <c r="R23">
-        <v>15.04359177738857</v>
+        <v>148.225623550002</v>
       </c>
       <c r="S23">
-        <v>0.03623721636111716</v>
+        <v>0.03143109461915306</v>
       </c>
       <c r="T23">
-        <v>0.03623721636111716</v>
+        <v>0.03143109461915306</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H24">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I24">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J24">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.26062997006695</v>
+        <v>1.287133333333333</v>
       </c>
       <c r="N24">
-        <v>1.26062997006695</v>
+        <v>3.8614</v>
       </c>
       <c r="O24">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="P24">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="Q24">
-        <v>6.797064021691954</v>
+        <v>7.590236421822222</v>
       </c>
       <c r="R24">
-        <v>6.797064021691954</v>
+        <v>68.31212779639999</v>
       </c>
       <c r="S24">
-        <v>0.0163728638226298</v>
+        <v>0.0144855180972136</v>
       </c>
       <c r="T24">
-        <v>0.0163728638226298</v>
+        <v>0.0144855180972136</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.39179948365893</v>
+        <v>5.897008666666667</v>
       </c>
       <c r="H25">
-        <v>5.39179948365893</v>
+        <v>17.691026</v>
       </c>
       <c r="I25">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="J25">
-        <v>0.133534002853555</v>
+        <v>0.1210708110659339</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.26820481308606</v>
+        <v>2.406344</v>
       </c>
       <c r="N25">
-        <v>2.26820481308606</v>
+        <v>7.219032</v>
       </c>
       <c r="O25">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="P25">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="Q25">
-        <v>12.22970554003012</v>
+        <v>14.19023142298134</v>
       </c>
       <c r="R25">
-        <v>12.22970554003012</v>
+        <v>127.712082806832</v>
       </c>
       <c r="S25">
-        <v>0.02945908744698434</v>
+        <v>0.02708121890515463</v>
       </c>
       <c r="T25">
-        <v>0.02945908744698434</v>
+        <v>0.02708121890515464</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H26">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I26">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J26">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.346417339618495</v>
+        <v>0.5172723333333333</v>
       </c>
       <c r="N26">
-        <v>0.346417339618495</v>
+        <v>1.551817</v>
       </c>
       <c r="O26">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="P26">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="Q26">
-        <v>1.774210341784767</v>
+        <v>2.668651246118555</v>
       </c>
       <c r="R26">
-        <v>1.774210341784767</v>
+        <v>24.017861215067</v>
       </c>
       <c r="S26">
-        <v>0.004273742931659555</v>
+        <v>0.005092963350872995</v>
       </c>
       <c r="T26">
-        <v>0.004273742931659555</v>
+        <v>0.005092963350872996</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H27">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I27">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J27">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.51449695129707</v>
+        <v>1.523369333333333</v>
       </c>
       <c r="N27">
-        <v>1.51449695129707</v>
+        <v>4.570107999999999</v>
       </c>
       <c r="O27">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="P27">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="Q27">
-        <v>7.756644504434911</v>
+        <v>7.859189845900888</v>
       </c>
       <c r="R27">
-        <v>7.756644504434911</v>
+        <v>70.73270861310799</v>
       </c>
       <c r="S27">
-        <v>0.01868431484334461</v>
+        <v>0.01499879982854388</v>
       </c>
       <c r="T27">
-        <v>0.01868431484334461</v>
+        <v>0.01499879982854388</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H28">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I28">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J28">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.10162484635969</v>
+        <v>2.230958</v>
       </c>
       <c r="N28">
-        <v>2.10162484635969</v>
+        <v>6.692874000000001</v>
       </c>
       <c r="O28">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="P28">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="Q28">
-        <v>10.76367753724331</v>
+        <v>11.50969897881934</v>
       </c>
       <c r="R28">
-        <v>10.76367753724331</v>
+        <v>103.587290809374</v>
       </c>
       <c r="S28">
-        <v>0.02592769848651736</v>
+        <v>0.02196558098926017</v>
       </c>
       <c r="T28">
-        <v>0.02592769848651736</v>
+        <v>0.02196558098926018</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H29">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I29">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J29">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.79008739530867</v>
+        <v>2.792859</v>
       </c>
       <c r="N29">
-        <v>2.79008739530867</v>
+        <v>8.378577</v>
       </c>
       <c r="O29">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="P29">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="Q29">
-        <v>14.28970592722512</v>
+        <v>14.408593250203</v>
       </c>
       <c r="R29">
-        <v>14.28970592722512</v>
+        <v>129.677339251827</v>
       </c>
       <c r="S29">
-        <v>0.03442124547675565</v>
+        <v>0.02749794956071972</v>
       </c>
       <c r="T29">
-        <v>0.03442124547675565</v>
+        <v>0.02749794956071973</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H30">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I30">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J30">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.26062997006695</v>
+        <v>1.287133333333333</v>
       </c>
       <c r="N30">
-        <v>1.26062997006695</v>
+        <v>3.8614</v>
       </c>
       <c r="O30">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="P30">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="Q30">
-        <v>6.456439889873202</v>
+        <v>6.640428556822222</v>
       </c>
       <c r="R30">
-        <v>6.456439889873202</v>
+        <v>59.76385701139999</v>
       </c>
       <c r="S30">
-        <v>0.01555236360265664</v>
+        <v>0.01267286586180006</v>
       </c>
       <c r="T30">
-        <v>0.01555236360265664</v>
+        <v>0.01267286586180006</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.12159796544446</v>
+        <v>5.159083666666667</v>
       </c>
       <c r="H31">
-        <v>5.12159796544446</v>
+        <v>15.477251</v>
       </c>
       <c r="I31">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="J31">
-        <v>0.126842157132356</v>
+        <v>0.1059205572159035</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.26820481308606</v>
+        <v>2.406344</v>
       </c>
       <c r="N31">
-        <v>2.26820481308606</v>
+        <v>7.219032</v>
       </c>
       <c r="O31">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="P31">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="Q31">
-        <v>11.6168331559129</v>
+        <v>12.41453002678134</v>
       </c>
       <c r="R31">
-        <v>11.6168331559129</v>
+        <v>111.730770241032</v>
       </c>
       <c r="S31">
-        <v>0.02798279179142218</v>
+        <v>0.02369239762470664</v>
       </c>
       <c r="T31">
-        <v>0.02798279179142218</v>
+        <v>0.02369239762470664</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H32">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I32">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J32">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.346417339618495</v>
+        <v>0.5172723333333333</v>
       </c>
       <c r="N32">
-        <v>0.346417339618495</v>
+        <v>1.551817</v>
       </c>
       <c r="O32">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="P32">
-        <v>0.03369339522663614</v>
+        <v>0.04808286025621767</v>
       </c>
       <c r="Q32">
-        <v>3.754894169623584</v>
+        <v>6.520190346233001</v>
       </c>
       <c r="R32">
-        <v>3.754894169623584</v>
+        <v>58.681713116097</v>
       </c>
       <c r="S32">
-        <v>0.009044842112923054</v>
+        <v>0.01244339833553708</v>
       </c>
       <c r="T32">
-        <v>0.009044842112923054</v>
+        <v>0.01244339833553708</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H33">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I33">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J33">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.51449695129707</v>
+        <v>1.523369333333333</v>
       </c>
       <c r="N33">
-        <v>1.51449695129707</v>
+        <v>4.570107999999999</v>
       </c>
       <c r="O33">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="P33">
-        <v>0.1473036667442362</v>
+        <v>0.1416042383346892</v>
       </c>
       <c r="Q33">
-        <v>16.41596745301732</v>
+        <v>19.201989708092</v>
       </c>
       <c r="R33">
-        <v>16.41596745301732</v>
+        <v>172.817907372828</v>
       </c>
       <c r="S33">
-        <v>0.0395430142731053</v>
+        <v>0.03664586370714116</v>
       </c>
       <c r="T33">
-        <v>0.0395430142731053</v>
+        <v>0.03664586370714117</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H34">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I34">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J34">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.10162484635969</v>
+        <v>2.230958</v>
       </c>
       <c r="N34">
-        <v>2.10162484635969</v>
+        <v>6.692874000000001</v>
       </c>
       <c r="O34">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="P34">
-        <v>0.2044091575915299</v>
+        <v>0.2073778836386459</v>
       </c>
       <c r="Q34">
-        <v>22.77997657687325</v>
+        <v>28.121107349226</v>
       </c>
       <c r="R34">
-        <v>22.77997657687325</v>
+        <v>253.089966143034</v>
       </c>
       <c r="S34">
-        <v>0.05487272934101332</v>
+        <v>0.05366747315666691</v>
       </c>
       <c r="T34">
-        <v>0.05487272934101332</v>
+        <v>0.05366747315666692</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H35">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I35">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J35">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.79008739530867</v>
+        <v>2.792859</v>
       </c>
       <c r="N35">
-        <v>2.79008739530867</v>
+        <v>8.378577</v>
       </c>
       <c r="O35">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="P35">
-        <v>0.271370703991088</v>
+        <v>0.259609185256354</v>
       </c>
       <c r="Q35">
-        <v>30.2423744288389</v>
+        <v>35.20383967347301</v>
       </c>
       <c r="R35">
-        <v>30.2423744288389</v>
+        <v>316.834557061257</v>
       </c>
       <c r="S35">
-        <v>0.07284825869171453</v>
+        <v>0.06718444964578246</v>
       </c>
       <c r="T35">
-        <v>0.07284825869171453</v>
+        <v>0.06718444964578248</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H36">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I36">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J36">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.26062997006695</v>
+        <v>1.287133333333333</v>
       </c>
       <c r="N36">
-        <v>1.26062997006695</v>
+        <v>3.8614</v>
       </c>
       <c r="O36">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="P36">
-        <v>0.1226119450682963</v>
+        <v>0.1196450074933828</v>
       </c>
       <c r="Q36">
-        <v>13.66424708956579</v>
+        <v>16.2242474486</v>
       </c>
       <c r="R36">
-        <v>13.66424708956579</v>
+        <v>146.0182270374</v>
       </c>
       <c r="S36">
-        <v>0.0329146313941201</v>
+        <v>0.03096301840541949</v>
       </c>
       <c r="T36">
-        <v>0.0329146313941201</v>
+        <v>0.0309630184054195</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.8392211941781</v>
+        <v>12.604947</v>
       </c>
       <c r="H37">
-        <v>10.8392211941781</v>
+        <v>37.814841</v>
       </c>
       <c r="I37">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="J37">
-        <v>0.2684455529661998</v>
+        <v>0.2587907264507627</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.26820481308606</v>
+        <v>2.406344</v>
       </c>
       <c r="N37">
-        <v>2.26820481308606</v>
+        <v>7.219032</v>
       </c>
       <c r="O37">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="P37">
-        <v>0.2206111313782134</v>
+        <v>0.2236808250207103</v>
       </c>
       <c r="Q37">
-        <v>24.5855736827392</v>
+        <v>30.331838583768</v>
       </c>
       <c r="R37">
-        <v>24.5855736827392</v>
+        <v>272.986547253912</v>
       </c>
       <c r="S37">
-        <v>0.05922207715332344</v>
+        <v>0.05788652320021555</v>
       </c>
       <c r="T37">
-        <v>0.05922207715332344</v>
+        <v>0.05788652320021556</v>
       </c>
     </row>
   </sheetData>
